--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CPP Projects\EDU_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7243A36E-4DD3-44DC-BD6A-0C448192FEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BE32FF-D1B3-4032-8CC9-5B49555BC06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{613FDAB2-8053-4E08-AEB5-B76B5A95CE29}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>уровень</t>
   </si>
@@ -176,19 +176,13 @@
     <t>гранатомет</t>
   </si>
   <si>
-    <t>пробивные патроны</t>
-  </si>
-  <si>
-    <t>усилитель радиуса ракет</t>
-  </si>
-  <si>
-    <t>поджигатель для плазмы</t>
-  </si>
-  <si>
-    <t>усилитель молнии</t>
-  </si>
-  <si>
-    <t>усилитель холода</t>
+    <t>усилитель радиуса поражения ракет</t>
+  </si>
+  <si>
+    <t>пробивные снаряды</t>
+  </si>
+  <si>
+    <t>силовое поле</t>
   </si>
 </sst>
 </file>
@@ -571,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9D4421-8338-40BC-9353-71CBF439BF75}">
-  <dimension ref="E1:AD55"/>
+  <dimension ref="E1:AC55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="AC40" sqref="AC40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y21" sqref="Y21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,8 +664,8 @@
         <v>100</v>
       </c>
       <c r="J3" s="1">
-        <f>4*(1.0185^(E3))</f>
-        <v>4</v>
+        <f>100*(1.0185^(E3))</f>
+        <v>100</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -739,12 +733,12 @@
         <v>1.5</v>
       </c>
       <c r="I4" s="1">
-        <f t="shared" ref="I4:I53" si="3">100*(1.0185^(E4))</f>
+        <f t="shared" ref="I4:J53" si="3">100*(1.0185^(E4))</f>
         <v>101.85</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J53" si="4">4*(1.0185^(E4))</f>
-        <v>4.0739999999999998</v>
+        <f t="shared" ref="J4:J53" si="4">100*(1.0185^(E4))</f>
+        <v>101.85</v>
       </c>
       <c r="L4">
         <f>L3+1</f>
@@ -818,7 +812,7 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" si="4"/>
-        <v>4.1493690000000001</v>
+        <v>103.73422500000001</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L53" si="11">L4+1</f>
@@ -890,7 +884,7 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" si="4"/>
-        <v>4.2261323265000001</v>
+        <v>105.6533081625</v>
       </c>
       <c r="L6">
         <f t="shared" si="11"/>
@@ -964,7 +958,7 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" si="4"/>
-        <v>4.3043157745402505</v>
+        <v>107.60789436350626</v>
       </c>
       <c r="L7">
         <f t="shared" si="11"/>
@@ -1038,7 +1032,7 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" si="4"/>
-        <v>4.3839456163692452</v>
+        <v>109.59864040923112</v>
       </c>
       <c r="L8">
         <f t="shared" si="11"/>
@@ -1102,7 +1096,7 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" si="4"/>
-        <v>4.4650486102720759</v>
+        <v>111.6262152568019</v>
       </c>
       <c r="L9">
         <f t="shared" si="11"/>
@@ -1170,7 +1164,7 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" si="4"/>
-        <v>4.5476520095621096</v>
+        <v>113.69130023905274</v>
       </c>
       <c r="L10">
         <f t="shared" si="11"/>
@@ -1232,7 +1226,7 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" si="4"/>
-        <v>4.6317835717390095</v>
+        <v>115.79458929347524</v>
       </c>
       <c r="L11">
         <f t="shared" si="11"/>
@@ -1282,7 +1276,7 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" si="4"/>
-        <v>4.7174715678161814</v>
+        <v>117.93678919540453</v>
       </c>
       <c r="L12">
         <f t="shared" si="11"/>
@@ -1332,7 +1326,7 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" si="4"/>
-        <v>4.8047447918207808</v>
+        <v>120.11861979551952</v>
       </c>
       <c r="L13">
         <f t="shared" si="11"/>
@@ -1382,7 +1376,7 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" si="4"/>
-        <v>4.8936325704694648</v>
+        <v>122.34081426173663</v>
       </c>
       <c r="L14">
         <f t="shared" si="11"/>
@@ -1432,7 +1426,7 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" si="4"/>
-        <v>4.9841647730231502</v>
+        <v>124.60411932557875</v>
       </c>
       <c r="L15">
         <f t="shared" si="11"/>
@@ -1482,7 +1476,7 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" si="4"/>
-        <v>5.0763718213240789</v>
+        <v>126.90929553310197</v>
       </c>
       <c r="L16">
         <f t="shared" si="11"/>
@@ -1532,7 +1526,7 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" si="4"/>
-        <v>5.1702847000185743</v>
+        <v>129.25711750046435</v>
       </c>
       <c r="L17">
         <f t="shared" si="11"/>
@@ -1582,7 +1576,7 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" si="4"/>
-        <v>5.2659349669689179</v>
+        <v>131.64837417422294</v>
       </c>
       <c r="L18">
         <f t="shared" si="11"/>
@@ -1632,7 +1626,7 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" si="4"/>
-        <v>5.3633547638578438</v>
+        <v>134.08386909644611</v>
       </c>
       <c r="L19">
         <f t="shared" si="11"/>
@@ -1682,7 +1676,7 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" si="4"/>
-        <v>5.4625768269892134</v>
+        <v>136.56442067473034</v>
       </c>
       <c r="L20">
         <f t="shared" si="11"/>
@@ -1738,7 +1732,7 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" si="4"/>
-        <v>5.5636344982885149</v>
+        <v>139.09086245721286</v>
       </c>
       <c r="L21">
         <f t="shared" si="11"/>
@@ -1803,7 +1797,7 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" si="4"/>
-        <v>5.6665617365068517</v>
+        <v>141.6640434126713</v>
       </c>
       <c r="L22">
         <f t="shared" si="11"/>
@@ -1865,7 +1859,7 @@
       </c>
       <c r="J23" s="1">
         <f t="shared" si="4"/>
-        <v>5.7713931286322291</v>
+        <v>144.28482821580573</v>
       </c>
       <c r="L23">
         <f t="shared" si="11"/>
@@ -1937,7 +1931,7 @@
       </c>
       <c r="J24" s="1">
         <f t="shared" si="4"/>
-        <v>5.8781639015119254</v>
+        <v>146.95409753779813</v>
       </c>
       <c r="L24">
         <f t="shared" si="11"/>
@@ -2009,7 +2003,7 @@
       </c>
       <c r="J25" s="1">
         <f t="shared" si="4"/>
-        <v>5.9869099336898959</v>
+        <v>149.67274834224739</v>
       </c>
       <c r="L25">
         <f t="shared" si="11"/>
@@ -2081,7 +2075,7 @@
       </c>
       <c r="J26" s="1">
         <f t="shared" si="4"/>
-        <v>6.0976677674631592</v>
+        <v>152.44169418657899</v>
       </c>
       <c r="L26">
         <f t="shared" si="11"/>
@@ -2137,7 +2131,7 @@
       </c>
       <c r="J27" s="1">
         <f t="shared" si="4"/>
-        <v>6.2104746211612287</v>
+        <v>155.26186552903073</v>
       </c>
       <c r="L27">
         <f t="shared" si="11"/>
@@ -2187,7 +2181,7 @@
       </c>
       <c r="J28" s="1">
         <f t="shared" si="4"/>
-        <v>6.3253684016527121</v>
+        <v>158.1342100413178</v>
       </c>
       <c r="L28">
         <f t="shared" si="11"/>
@@ -2241,7 +2235,7 @@
       </c>
       <c r="J29" s="1">
         <f t="shared" si="4"/>
-        <v>6.4423877170832871</v>
+        <v>161.05969292708218</v>
       </c>
       <c r="L29">
         <f t="shared" si="11"/>
@@ -2291,7 +2285,7 @@
       </c>
       <c r="J30" s="1">
         <f t="shared" si="4"/>
-        <v>6.5615718898493274</v>
+        <v>164.03929724623319</v>
       </c>
       <c r="L30">
         <f t="shared" si="11"/>
@@ -2341,7 +2335,7 @@
       </c>
       <c r="J31" s="1">
         <f t="shared" si="4"/>
-        <v>6.68296096981154</v>
+        <v>167.07402424528851</v>
       </c>
       <c r="L31">
         <f t="shared" si="11"/>
@@ -2391,34 +2385,34 @@
       </c>
       <c r="J32" s="1">
         <f t="shared" si="4"/>
+        <v>170.16489369382637</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" si="5"/>
+        <v>0.44338334756894215</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="6"/>
+        <v>3.7806843331789377</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="7"/>
+        <v>15.5</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="8"/>
+        <v>126.72260732217151</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="9"/>
         <v>6.8065957477530548</v>
       </c>
-      <c r="L32">
-        <f t="shared" si="11"/>
-        <v>29</v>
-      </c>
-      <c r="M32" s="1">
-        <f t="shared" si="5"/>
-        <v>0.44338334756894215</v>
-      </c>
-      <c r="N32" s="1">
-        <f t="shared" si="6"/>
-        <v>3.7806843331789377</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="7"/>
-        <v>15.5</v>
-      </c>
-      <c r="P32" s="1">
-        <f t="shared" si="8"/>
-        <v>126.72260732217151</v>
-      </c>
-      <c r="Q32" s="1">
-        <f t="shared" si="9"/>
-        <v>6.8065957477530548</v>
-      </c>
-    </row>
-    <row r="33" spans="5:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E33">
         <f t="shared" si="12"/>
         <v>30</v>
@@ -2441,7 +2435,7 @@
       </c>
       <c r="J33" s="1">
         <f t="shared" si="4"/>
-        <v>6.9325177690864859</v>
+        <v>173.31294422716215</v>
       </c>
       <c r="L33">
         <f t="shared" si="11"/>
@@ -2470,11 +2464,8 @@
       <c r="AA33" t="s">
         <v>44</v>
       </c>
-      <c r="AD33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="5:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E34">
         <f t="shared" ref="E34:E52" si="14">E33+1</f>
         <v>31</v>
@@ -2497,7 +2488,7 @@
       </c>
       <c r="J34" s="1">
         <f t="shared" si="4"/>
-        <v>7.0607693478145857</v>
+        <v>176.51923369536465</v>
       </c>
       <c r="L34">
         <f t="shared" si="11"/>
@@ -2529,14 +2520,8 @@
       <c r="AA34" t="s">
         <v>46</v>
       </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="5:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E35">
         <f t="shared" si="14"/>
         <v>32</v>
@@ -2559,7 +2544,7 @@
       </c>
       <c r="J35" s="1">
         <f t="shared" si="4"/>
-        <v>7.1913935807491569</v>
+        <v>179.78483951872892</v>
       </c>
       <c r="L35">
         <f t="shared" si="11"/>
@@ -2591,14 +2576,8 @@
       <c r="AA35" t="s">
         <v>45</v>
       </c>
-      <c r="AC35">
-        <v>1</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="5:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E36">
         <f t="shared" si="14"/>
         <v>33</v>
@@ -2621,7 +2600,7 @@
       </c>
       <c r="J36" s="1">
         <f t="shared" si="4"/>
-        <v>7.3244343619930161</v>
+        <v>183.11085904982539</v>
       </c>
       <c r="L36">
         <f t="shared" si="11"/>
@@ -2651,16 +2630,10 @@
         <v>2</v>
       </c>
       <c r="AA36" t="s">
-        <v>47</v>
-      </c>
-      <c r="AC36">
-        <v>2</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="5:30" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E37">
         <f t="shared" si="14"/>
         <v>34</v>
@@ -2683,7 +2656,7 @@
       </c>
       <c r="J37" s="1">
         <f t="shared" si="4"/>
-        <v>7.4599363976898871</v>
+        <v>186.49840994224718</v>
       </c>
       <c r="L37">
         <f t="shared" si="11"/>
@@ -2713,16 +2686,10 @@
         <v>3</v>
       </c>
       <c r="AA37" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC37">
-        <v>3</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="5:30" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E38">
         <f t="shared" si="14"/>
         <v>35</v>
@@ -2745,7 +2712,7 @@
       </c>
       <c r="J38" s="1">
         <f t="shared" si="4"/>
-        <v>7.5979452210471505</v>
+        <v>189.94863052617876</v>
       </c>
       <c r="L38">
         <f t="shared" si="11"/>
@@ -2777,14 +2744,8 @@
       <c r="AA38" t="s">
         <v>49</v>
       </c>
-      <c r="AC38">
-        <v>4</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="5:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E39">
         <f t="shared" si="14"/>
         <v>36</v>
@@ -2807,40 +2768,34 @@
       </c>
       <c r="J39" s="1">
         <f t="shared" si="4"/>
+        <v>193.46268019091309</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.51678687179428384</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="6"/>
+        <v>4.4088117346830291</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="8"/>
+        <v>134.17788800242397</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="9"/>
         <v>7.7385072076365233</v>
       </c>
-      <c r="L39">
-        <f t="shared" si="11"/>
-        <v>36</v>
-      </c>
-      <c r="M39" s="1">
-        <f t="shared" si="5"/>
-        <v>0.51678687179428384</v>
-      </c>
-      <c r="N39" s="1">
-        <f t="shared" si="6"/>
-        <v>4.4088117346830291</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="7"/>
-        <v>19</v>
-      </c>
-      <c r="P39" s="1">
-        <f t="shared" si="8"/>
-        <v>134.17788800242397</v>
-      </c>
-      <c r="Q39" s="1">
-        <f t="shared" si="9"/>
-        <v>7.7385072076365233</v>
-      </c>
-      <c r="Z39">
-        <v>5</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="5:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E40">
         <f t="shared" si="14"/>
         <v>37</v>
@@ -2863,40 +2818,34 @@
       </c>
       <c r="J40" s="1">
         <f t="shared" si="4"/>
+        <v>197.04173977444498</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="5"/>
+        <v>0.52645113435839819</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="6"/>
+        <v>4.5066873551929927</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="7"/>
+        <v>19.5</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="8"/>
+        <v>135.27814668404383</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="9"/>
         <v>7.8816695909777987</v>
       </c>
-      <c r="L40">
-        <f t="shared" si="11"/>
-        <v>37</v>
-      </c>
-      <c r="M40" s="1">
-        <f t="shared" si="5"/>
-        <v>0.52645113435839819</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" si="6"/>
-        <v>4.5066873551929927</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>19.5</v>
-      </c>
-      <c r="P40" s="1">
-        <f t="shared" si="8"/>
-        <v>135.27814668404383</v>
-      </c>
-      <c r="Q40" s="1">
-        <f t="shared" si="9"/>
-        <v>7.8816695909777987</v>
-      </c>
-      <c r="Z40">
-        <v>6</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="5:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E41">
         <f t="shared" si="14"/>
         <v>38</v>
@@ -2919,34 +2868,34 @@
       </c>
       <c r="J41" s="1">
         <f t="shared" si="4"/>
+        <v>200.6870119602722</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" si="5"/>
+        <v>0.53592211167123027</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="6"/>
+        <v>4.6067358144782764</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" si="8"/>
+        <v>136.38742748685297</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="9"/>
         <v>8.0274804784108884</v>
       </c>
-      <c r="L41">
-        <f t="shared" si="11"/>
-        <v>38</v>
-      </c>
-      <c r="M41" s="1">
-        <f t="shared" si="5"/>
-        <v>0.53592211167123027</v>
-      </c>
-      <c r="N41" s="1">
-        <f t="shared" si="6"/>
-        <v>4.6067358144782764</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="P41" s="1">
-        <f t="shared" si="8"/>
-        <v>136.38742748685297</v>
-      </c>
-      <c r="Q41" s="1">
-        <f t="shared" si="9"/>
-        <v>8.0274804784108884</v>
-      </c>
-    </row>
-    <row r="42" spans="5:30" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E42">
         <f t="shared" si="14"/>
         <v>39</v>
@@ -2969,34 +2918,38 @@
       </c>
       <c r="J42" s="1">
         <f t="shared" si="4"/>
+        <v>204.39972168153724</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" si="5"/>
+        <v>0.54520366943780563</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="6"/>
+        <v>4.7090053495596935</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="7"/>
+        <v>20.5</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" si="8"/>
+        <v>137.50580439224518</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="9"/>
         <v>8.1759888672614895</v>
       </c>
-      <c r="L42">
-        <f t="shared" si="11"/>
-        <v>39</v>
-      </c>
-      <c r="M42" s="1">
-        <f t="shared" si="5"/>
-        <v>0.54520366943780563</v>
-      </c>
-      <c r="N42" s="1">
-        <f t="shared" si="6"/>
-        <v>4.7090053495596935</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>20.5</v>
-      </c>
-      <c r="P42" s="1">
-        <f t="shared" si="8"/>
-        <v>137.50580439224518</v>
-      </c>
-      <c r="Q42" s="1">
-        <f t="shared" si="9"/>
-        <v>8.1759888672614895</v>
-      </c>
-    </row>
-    <row r="43" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="U42">
+        <f>U43-379</f>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E43">
         <f t="shared" si="14"/>
         <v>40</v>
@@ -3019,34 +2972,41 @@
       </c>
       <c r="J43" s="1">
         <f t="shared" si="4"/>
+        <v>208.18111653264572</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="5"/>
+        <v>0.55429959604904955</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="6"/>
+        <v>4.8135452683199196</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" si="8"/>
+        <v>138.63335198826158</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="9"/>
         <v>8.3272446613058282</v>
       </c>
-      <c r="L43">
-        <f t="shared" si="11"/>
-        <v>40</v>
-      </c>
-      <c r="M43" s="1">
-        <f t="shared" si="5"/>
-        <v>0.55429959604904955</v>
-      </c>
-      <c r="N43" s="1">
-        <f t="shared" si="6"/>
-        <v>4.8135452683199196</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>21</v>
-      </c>
-      <c r="P43" s="1">
-        <f t="shared" si="8"/>
-        <v>138.63335198826158</v>
-      </c>
-      <c r="Q43" s="1">
-        <f t="shared" si="9"/>
-        <v>8.3272446613058282</v>
-      </c>
-    </row>
-    <row r="44" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="U43">
+        <v>670</v>
+      </c>
+      <c r="V43">
+        <f>U43-U42</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E44">
         <f t="shared" si="14"/>
         <v>41</v>
@@ -3069,34 +3029,44 @@
       </c>
       <c r="J44" s="1">
         <f t="shared" si="4"/>
+        <v>212.03246718849965</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" si="5"/>
+        <v>0.56321360412806853</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="6"/>
+        <v>4.9204059732766225</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>21.5</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" si="8"/>
+        <v>139.77014547456531</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="9"/>
         <v>8.4812986875399865</v>
       </c>
-      <c r="L44">
-        <f t="shared" si="11"/>
-        <v>41</v>
-      </c>
-      <c r="M44" s="1">
-        <f t="shared" si="5"/>
-        <v>0.56321360412806853</v>
-      </c>
-      <c r="N44" s="1">
-        <f t="shared" si="6"/>
-        <v>4.9204059732766225</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="7"/>
-        <v>21.5</v>
-      </c>
-      <c r="P44" s="1">
-        <f t="shared" si="8"/>
-        <v>139.77014547456531</v>
-      </c>
-      <c r="Q44" s="1">
-        <f t="shared" si="9"/>
-        <v>8.4812986875399865</v>
-      </c>
-    </row>
-    <row r="45" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="U44">
+        <v>1049</v>
+      </c>
+      <c r="V44">
+        <f>U44-U43</f>
+        <v>379</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E45">
         <f t="shared" si="14"/>
         <v>42</v>
@@ -3119,34 +3089,47 @@
       </c>
       <c r="J45" s="1">
         <f t="shared" si="4"/>
+        <v>215.9550678314869</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" si="5"/>
+        <v>0.57194933204550713</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="6"/>
+        <v>5.0296389858833628</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" si="8"/>
+        <v>140.91626066745675</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="9"/>
         <v>8.6382027132594761</v>
       </c>
-      <c r="L45">
-        <f t="shared" si="11"/>
-        <v>42</v>
-      </c>
-      <c r="M45" s="1">
-        <f t="shared" si="5"/>
-        <v>0.57194933204550713</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" si="6"/>
-        <v>5.0296389858833628</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="P45" s="1">
-        <f t="shared" si="8"/>
-        <v>140.91626066745675</v>
-      </c>
-      <c r="Q45" s="1">
-        <f t="shared" si="9"/>
-        <v>8.6382027132594761</v>
-      </c>
-    </row>
-    <row r="46" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="U45">
+        <v>1422</v>
+      </c>
+      <c r="V45">
+        <f>U45-U44</f>
+        <v>373</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E46">
         <f t="shared" si="14"/>
         <v>43</v>
@@ -3169,34 +3152,40 @@
       </c>
       <c r="J46" s="1">
         <f t="shared" si="4"/>
+        <v>219.95023658636939</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="11"/>
+        <v>43</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" si="5"/>
+        <v>0.58051034540459701</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="6"/>
+        <v>5.1412969713699734</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="7"/>
+        <v>22.5</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" si="8"/>
+        <v>142.07177400492986</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="9"/>
         <v>8.7980094634547754</v>
       </c>
-      <c r="L46">
-        <f t="shared" si="11"/>
-        <v>43</v>
-      </c>
-      <c r="M46" s="1">
-        <f t="shared" si="5"/>
-        <v>0.58051034540459701</v>
-      </c>
-      <c r="N46" s="1">
-        <f t="shared" si="6"/>
-        <v>5.1412969713699734</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="7"/>
-        <v>22.5</v>
-      </c>
-      <c r="P46" s="1">
-        <f t="shared" si="8"/>
-        <v>142.07177400492986</v>
-      </c>
-      <c r="Q46" s="1">
-        <f t="shared" si="9"/>
-        <v>8.7980094634547754</v>
-      </c>
-    </row>
-    <row r="47" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="Z46">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E47">
         <f t="shared" si="14"/>
         <v>44</v>
@@ -3219,34 +3208,40 @@
       </c>
       <c r="J47" s="1">
         <f t="shared" si="4"/>
+        <v>224.01931596321725</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
+      <c r="M47" s="1">
+        <f t="shared" si="5"/>
+        <v>0.58890013849650513</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" si="6"/>
+        <v>5.2554337641343869</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="7"/>
+        <v>23</v>
+      </c>
+      <c r="P47" s="1">
+        <f t="shared" si="8"/>
+        <v>143.23676255177028</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="9"/>
         <v>8.9607726385286899</v>
       </c>
-      <c r="L47">
-        <f t="shared" si="11"/>
-        <v>44</v>
-      </c>
-      <c r="M47" s="1">
-        <f t="shared" si="5"/>
-        <v>0.58890013849650513</v>
-      </c>
-      <c r="N47" s="1">
-        <f t="shared" si="6"/>
-        <v>5.2554337641343869</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="7"/>
-        <v>23</v>
-      </c>
-      <c r="P47" s="1">
-        <f t="shared" si="8"/>
-        <v>143.23676255177028</v>
-      </c>
-      <c r="Q47" s="1">
-        <f t="shared" si="9"/>
-        <v>8.9607726385286899</v>
-      </c>
-    </row>
-    <row r="48" spans="5:30" x14ac:dyDescent="0.35">
+      <c r="Z47">
+        <v>2</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E48">
         <f t="shared" si="14"/>
         <v>45</v>
@@ -3269,34 +3264,40 @@
       </c>
       <c r="J48" s="1">
         <f t="shared" si="4"/>
+        <v>228.16367330853677</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="5"/>
+        <v>0.59712213572657502</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" si="6"/>
+        <v>5.3721043936981694</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>23.5</v>
+      </c>
+      <c r="P48" s="1">
+        <f t="shared" si="8"/>
+        <v>144.41130400469481</v>
+      </c>
+      <c r="Q48" s="1">
+        <f t="shared" si="9"/>
         <v>9.126546932341471</v>
       </c>
-      <c r="L48">
-        <f t="shared" si="11"/>
-        <v>45</v>
-      </c>
-      <c r="M48" s="1">
-        <f t="shared" si="5"/>
-        <v>0.59712213572657502</v>
-      </c>
-      <c r="N48" s="1">
-        <f t="shared" si="6"/>
-        <v>5.3721043936981694</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="7"/>
-        <v>23.5</v>
-      </c>
-      <c r="P48" s="1">
-        <f t="shared" si="8"/>
-        <v>144.41130400469481</v>
-      </c>
-      <c r="Q48" s="1">
-        <f t="shared" si="9"/>
-        <v>9.126546932341471</v>
-      </c>
-    </row>
-    <row r="49" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="Z48">
+        <v>3</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E49">
         <f t="shared" si="14"/>
         <v>46</v>
@@ -3319,34 +3320,40 @@
       </c>
       <c r="J49" s="1">
         <f t="shared" si="4"/>
+        <v>232.38470126474473</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="M49" s="1">
+        <f t="shared" si="5"/>
+        <v>0.60517969301204355</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="6"/>
+        <v>5.4913651112382693</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="7"/>
+        <v>24</v>
+      </c>
+      <c r="P49" s="1">
+        <f t="shared" si="8"/>
+        <v>145.59547669753329</v>
+      </c>
+      <c r="Q49" s="1">
+        <f t="shared" si="9"/>
         <v>9.2953880505897892</v>
       </c>
-      <c r="L49">
-        <f t="shared" si="11"/>
-        <v>46</v>
-      </c>
-      <c r="M49" s="1">
-        <f t="shared" si="5"/>
-        <v>0.60517969301204355</v>
-      </c>
-      <c r="N49" s="1">
-        <f t="shared" si="6"/>
-        <v>5.4913651112382693</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="7"/>
-        <v>24</v>
-      </c>
-      <c r="P49" s="1">
-        <f t="shared" si="8"/>
-        <v>145.59547669753329</v>
-      </c>
-      <c r="Q49" s="1">
-        <f t="shared" si="9"/>
-        <v>9.2953880505897892</v>
-      </c>
-    </row>
-    <row r="50" spans="5:17" x14ac:dyDescent="0.35">
+      <c r="Z49">
+        <v>4</v>
+      </c>
+      <c r="AA49" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E50">
         <f t="shared" si="14"/>
         <v>47</v>
@@ -3369,34 +3376,34 @@
       </c>
       <c r="J50" s="1">
         <f t="shared" si="4"/>
+        <v>236.68381823814252</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="5"/>
+        <v>0.61307609915180272</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="6"/>
+        <v>5.6132734167077585</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="7"/>
+        <v>24.5</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="8"/>
+        <v>146.78935960645308</v>
+      </c>
+      <c r="Q50" s="1">
+        <f t="shared" si="9"/>
         <v>9.4673527295257003</v>
       </c>
-      <c r="L50">
-        <f t="shared" si="11"/>
-        <v>47</v>
-      </c>
-      <c r="M50" s="1">
-        <f t="shared" si="5"/>
-        <v>0.61307609915180272</v>
-      </c>
-      <c r="N50" s="1">
-        <f t="shared" si="6"/>
-        <v>5.6132734167077585</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="7"/>
-        <v>24.5</v>
-      </c>
-      <c r="P50" s="1">
-        <f t="shared" si="8"/>
-        <v>146.78935960645308</v>
-      </c>
-      <c r="Q50" s="1">
-        <f t="shared" si="9"/>
-        <v>9.4673527295257003</v>
-      </c>
-    </row>
-    <row r="51" spans="5:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E51">
         <f t="shared" si="14"/>
         <v>48</v>
@@ -3419,34 +3426,34 @@
       </c>
       <c r="J51" s="1">
         <f t="shared" si="4"/>
+        <v>241.06246887554818</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="M51" s="1">
+        <f t="shared" si="5"/>
+        <v>0.62081457716876665</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" si="6"/>
+        <v>5.7378880865586712</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="P51" s="1">
+        <f t="shared" si="8"/>
+        <v>147.99303235522601</v>
+      </c>
+      <c r="Q51" s="1">
+        <f t="shared" si="9"/>
         <v>9.6424987550219274</v>
       </c>
-      <c r="L51">
-        <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-      <c r="M51" s="1">
-        <f t="shared" si="5"/>
-        <v>0.62081457716876665</v>
-      </c>
-      <c r="N51" s="1">
-        <f t="shared" si="6"/>
-        <v>5.7378880865586712</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="P51" s="1">
-        <f t="shared" si="8"/>
-        <v>147.99303235522601</v>
-      </c>
-      <c r="Q51" s="1">
-        <f t="shared" si="9"/>
-        <v>9.6424987550219274</v>
-      </c>
-    </row>
-    <row r="52" spans="5:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E52">
         <f t="shared" si="14"/>
         <v>49</v>
@@ -3469,34 +3476,34 @@
       </c>
       <c r="J52" s="1">
         <f t="shared" si="4"/>
+        <v>245.52212454974577</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="M52" s="1">
+        <f t="shared" si="5"/>
+        <v>0.62839828562539135</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" si="6"/>
+        <v>5.8652692020802739</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>25.5</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="8"/>
+        <v>149.20657522053884</v>
+      </c>
+      <c r="Q52" s="1">
+        <f t="shared" si="9"/>
         <v>9.8208849819898312</v>
       </c>
-      <c r="L52">
-        <f t="shared" si="11"/>
-        <v>49</v>
-      </c>
-      <c r="M52" s="1">
-        <f t="shared" si="5"/>
-        <v>0.62839828562539135</v>
-      </c>
-      <c r="N52" s="1">
-        <f t="shared" si="6"/>
-        <v>5.8652692020802739</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="7"/>
-        <v>25.5</v>
-      </c>
-      <c r="P52" s="1">
-        <f t="shared" si="8"/>
-        <v>149.20657522053884</v>
-      </c>
-      <c r="Q52" s="1">
-        <f t="shared" si="9"/>
-        <v>9.8208849819898312</v>
-      </c>
-    </row>
-    <row r="53" spans="5:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="5:27" x14ac:dyDescent="0.35">
       <c r="E53">
         <f t="shared" ref="E53" si="15">E52+1</f>
         <v>50</v>
@@ -3519,34 +3526,34 @@
       </c>
       <c r="J53" s="1">
         <f t="shared" si="4"/>
+        <v>250.06428385391612</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="M53" s="1">
+        <f t="shared" si="5"/>
+        <v>0.63583031991288352</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" si="6"/>
+        <v>5.9954781783664561</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="8"/>
+        <v>150.43006913734726</v>
+      </c>
+      <c r="Q53" s="1">
+        <f t="shared" si="9"/>
         <v>10.002571354156645</v>
       </c>
-      <c r="L53">
-        <f t="shared" si="11"/>
-        <v>50</v>
-      </c>
-      <c r="M53" s="1">
-        <f t="shared" si="5"/>
-        <v>0.63583031991288352</v>
-      </c>
-      <c r="N53" s="1">
-        <f t="shared" si="6"/>
-        <v>5.9954781783664561</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="7"/>
-        <v>26</v>
-      </c>
-      <c r="P53" s="1">
-        <f t="shared" si="8"/>
-        <v>150.43006913734726</v>
-      </c>
-      <c r="Q53" s="1">
-        <f t="shared" si="9"/>
-        <v>10.002571354156645</v>
-      </c>
-    </row>
-    <row r="55" spans="5:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="5:27" x14ac:dyDescent="0.35">
       <c r="N55" s="3">
         <v>1.0222</v>
       </c>
